--- a/MyHOLO/Ana_2020_May/HOE_PSF_Beam4_Rayfile_484_allwl_0_0_OP1_out.xlsx
+++ b/MyHOLO/Ana_2020_May/HOE_PSF_Beam4_Rayfile_484_allwl_0_0_OP1_out.xlsx
@@ -456,16 +456,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-4.26156</v>
+        <v>4.26156</v>
       </c>
       <c r="C2">
         <v>0.005096606714275705</v>
       </c>
       <c r="D2">
-        <v>-4.2697</v>
+        <v>4.2535</v>
       </c>
       <c r="E2">
-        <v>-4.2535</v>
+        <v>4.2697</v>
       </c>
       <c r="F2">
         <v>0.01620000000000044</v>
@@ -491,16 +491,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-6.415099173553718</v>
+        <v>6.415099173553718</v>
       </c>
       <c r="C3">
         <v>0.001346835646667967</v>
       </c>
       <c r="D3">
-        <v>-6.4172</v>
+        <v>6.4129</v>
       </c>
       <c r="E3">
-        <v>-6.4129</v>
+        <v>6.4172</v>
       </c>
       <c r="F3">
         <v>0.004300000000000637</v>
@@ -526,16 +526,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-8.59630082644628</v>
+        <v>8.59630082644628</v>
       </c>
       <c r="C4">
         <v>0.006422423216990936</v>
       </c>
       <c r="D4">
-        <v>-8.606400000000001</v>
+        <v>8.5861</v>
       </c>
       <c r="E4">
-        <v>-8.5861</v>
+        <v>8.606400000000001</v>
       </c>
       <c r="F4">
         <v>0.02030000000000065</v>
@@ -561,16 +561,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-10.81542479338843</v>
+        <v>10.81542479338843</v>
       </c>
       <c r="C5">
         <v>0.01836848847235295</v>
       </c>
       <c r="D5">
-        <v>-10.8444</v>
+        <v>10.7863</v>
       </c>
       <c r="E5">
-        <v>-10.7863</v>
+        <v>10.8444</v>
       </c>
       <c r="F5">
         <v>0.0580999999999996</v>
